--- a/Comparativo de Mercado - Tortuga.xlsx
+++ b/Comparativo de Mercado - Tortuga.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25825"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD1E9CCA-7F5C-478B-8B61-B99A9B4839C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54831C15-2D33-4FA3-AFA7-790EEC22DA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
   <si>
     <t>Tortuga</t>
   </si>
@@ -64,6 +64,36 @@
   </si>
   <si>
     <t>Cursos Próprios</t>
+  </si>
+  <si>
+    <t>Certificado</t>
+  </si>
+  <si>
+    <t>Classificação de Trilha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não </t>
+  </si>
+  <si>
+    <t>Foco em reforço</t>
+  </si>
+  <si>
+    <t>Multidisciplinar</t>
+  </si>
+  <si>
+    <t>Foco no Ensino Básico (PEB II)</t>
+  </si>
+  <si>
+    <t>Conteúdo Selecionado</t>
+  </si>
+  <si>
+    <t>Gameficação</t>
+  </si>
+  <si>
+    <t>Tira dúvida</t>
+  </si>
+  <si>
+    <t>SIm</t>
   </si>
 </sst>
 </file>
@@ -424,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -520,6 +550,142 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
